--- a/tests/e2e_futtatás.xlsx
+++ b/tests/e2e_futtatás.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/870353eac95c0052/!Tananyagok/Vizsgaremek/hibabejelento/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC80ED93-2BDF-49C1-BD1B-0D1B47733DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{FC80ED93-2BDF-49C1-BD1B-0D1B47733DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FBEC42-F7FA-4115-9B59-6E1488B60C1C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="15480" xr2:uid="{D13798A4-7430-465E-836F-52F514969507}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{D13798A4-7430-465E-836F-52F514969507}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>Teszteset LT-01: Sikeres bejelentkezés tanárként</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Teszteset UM-01: Felhasználókezelő oldal elérése adminisztrátorként</t>
+  </si>
+  <si>
+    <t>Teszteset UM-02: Új felhasználó hozzáadása adminisztrátorként</t>
+  </si>
+  <si>
+    <t>Teszteset UM-03: Felhasználó törlése adminisztrátorként</t>
+  </si>
+  <si>
+    <t>Teszteset UM-04: Adminisztrátor saját magát próbálja törölni (sikertelen)</t>
+  </si>
+  <si>
+    <t>Teszteset UM-05: Felhasználó törlése, akihez hiba kapcsolódik (sikertelen)</t>
+  </si>
+  <si>
+    <t>Teszteset UM-06: Felhasználókezelő oldal elérése nem adminisztrátorként (sikertelen)</t>
+  </si>
+  <si>
+    <t>Teszteset S-01: Súgó oldal megnyitása új lapon</t>
+  </si>
+  <si>
+    <t>Teszteset S-02: Súgó oldal bezárása</t>
   </si>
 </sst>
 </file>
@@ -495,15 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4AC12A-D331-4F0B-AD4D-DF486E8B7CB5}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -792,7 +816,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -806,15 +830,127 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45816</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45816</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
